--- a/conven_control/data/test3.xlsx
+++ b/conven_control/data/test3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>J1</t>
   </si>
@@ -68,9 +68,6 @@
   </si>
   <si>
     <t>[   0.6927   -0.1442   -0.308  -113.2974   90.     -112.7833]</t>
-  </si>
-  <si>
-    <t>[   0.6927    0.057    -0.308  -114.4801   90.     -114.0073]</t>
   </si>
   <si>
     <t>[   0.6927    0.2436   -0.308  -117.4224   90.     -116.9412]</t>
@@ -474,34 +471,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>-44.13</v>
+        <v>-41.925</v>
       </c>
       <c r="C2">
-        <v>50.056</v>
+        <v>50.623</v>
       </c>
       <c r="D2">
-        <v>111.003</v>
+        <v>110.627</v>
       </c>
       <c r="E2">
-        <v>185.962</v>
+        <v>-166.678</v>
       </c>
       <c r="F2">
-        <v>69.393</v>
+        <v>71.06699999999999</v>
       </c>
       <c r="G2">
-        <v>-180.505</v>
+        <v>176.244</v>
       </c>
       <c r="H2" t="s">
         <v>10</v>
       </c>
       <c r="I2">
-        <v>0.504</v>
+        <v>0.57</v>
       </c>
       <c r="J2">
-        <v>-3.421</v>
+        <v>-3.281</v>
       </c>
       <c r="K2">
-        <v>5.978</v>
+        <v>5.546</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -509,34 +506,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-32.097</v>
+        <v>-44.265</v>
       </c>
       <c r="C3">
-        <v>48.387</v>
+        <v>47.6</v>
       </c>
       <c r="D3">
-        <v>124.926</v>
+        <v>123.91</v>
       </c>
       <c r="E3">
-        <v>8.163</v>
+        <v>152.532</v>
       </c>
       <c r="F3">
-        <v>-84.809</v>
+        <v>82.126</v>
       </c>
       <c r="G3">
-        <v>-2.724</v>
+        <v>185.07</v>
       </c>
       <c r="H3" t="s">
         <v>11</v>
       </c>
       <c r="I3">
-        <v>0.591</v>
+        <v>0.474</v>
       </c>
       <c r="J3">
-        <v>-2.194</v>
+        <v>-2.7</v>
       </c>
       <c r="K3">
-        <v>2.582</v>
+        <v>3.758</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -544,34 +541,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-28.594</v>
+        <v>-25.188</v>
       </c>
       <c r="C4">
-        <v>46.969</v>
+        <v>47.17</v>
       </c>
       <c r="D4">
-        <v>134.348</v>
+        <v>135.285</v>
       </c>
       <c r="E4">
-        <v>149.374</v>
+        <v>-202.428</v>
       </c>
       <c r="F4">
-        <v>91.107</v>
+        <v>92.28100000000001</v>
       </c>
       <c r="G4">
-        <v>180.197</v>
+        <v>178.266</v>
       </c>
       <c r="H4" t="s">
         <v>12</v>
       </c>
       <c r="I4">
-        <v>0.498</v>
+        <v>0.476</v>
       </c>
       <c r="J4">
-        <v>-1.426</v>
+        <v>-1.343</v>
       </c>
       <c r="K4">
-        <v>1.141</v>
+        <v>1.015</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -579,34 +576,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.074</v>
+        <v>16.617</v>
       </c>
       <c r="C5">
-        <v>48.035</v>
+        <v>50.243</v>
       </c>
       <c r="D5">
-        <v>127.05</v>
+        <v>112</v>
       </c>
       <c r="E5">
-        <v>233.528</v>
+        <v>-91.489</v>
       </c>
       <c r="F5">
-        <v>88.325</v>
+        <v>88.95699999999999</v>
       </c>
       <c r="G5">
-        <v>174.498</v>
+        <v>-197.598</v>
       </c>
       <c r="H5" t="s">
         <v>13</v>
       </c>
       <c r="I5">
-        <v>0.481</v>
+        <v>1.04</v>
       </c>
       <c r="J5">
-        <v>-0.657</v>
+        <v>-0.452</v>
       </c>
       <c r="K5">
-        <v>0.332</v>
+        <v>0.643</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -614,34 +611,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>23.061</v>
+        <v>23.425</v>
       </c>
       <c r="C6">
-        <v>47.288</v>
+        <v>47.403</v>
       </c>
       <c r="D6">
-        <v>129.635</v>
+        <v>129.493</v>
       </c>
       <c r="E6">
-        <v>12.643</v>
+        <v>193.872</v>
       </c>
       <c r="F6">
-        <v>-87.178</v>
+        <v>87.181</v>
       </c>
       <c r="G6">
-        <v>0.006</v>
+        <v>180.24</v>
       </c>
       <c r="H6" t="s">
         <v>14</v>
       </c>
       <c r="I6">
-        <v>0.856</v>
+        <v>0.85</v>
       </c>
       <c r="J6">
-        <v>-0.203</v>
+        <v>-0.2</v>
       </c>
       <c r="K6">
-        <v>0.387</v>
+        <v>0.381</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -649,34 +646,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>-35.551</v>
+        <v>-44.893</v>
       </c>
       <c r="C7">
-        <v>57.723</v>
+        <v>58.967</v>
       </c>
       <c r="D7">
-        <v>89.367</v>
+        <v>87.589</v>
       </c>
       <c r="E7">
-        <v>12.28</v>
+        <v>143.083</v>
       </c>
       <c r="F7">
-        <v>-55.994</v>
+        <v>62.348</v>
       </c>
       <c r="G7">
-        <v>-4.919</v>
+        <v>198.689</v>
       </c>
       <c r="H7" t="s">
         <v>15</v>
       </c>
       <c r="I7">
-        <v>1.014</v>
+        <v>0.51</v>
       </c>
       <c r="J7">
-        <v>-4.175</v>
+        <v>-4.755</v>
       </c>
       <c r="K7">
-        <v>9.228</v>
+        <v>11.434</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -684,34 +681,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-14.615</v>
+        <v>-28.503</v>
       </c>
       <c r="C8">
-        <v>119.912</v>
+        <v>52.997</v>
       </c>
       <c r="D8">
-        <v>-40.569</v>
+        <v>103.705</v>
       </c>
       <c r="E8">
-        <v>-94.399</v>
+        <v>179.531</v>
       </c>
       <c r="F8">
-        <v>114.21</v>
+        <v>66.562</v>
       </c>
       <c r="G8">
-        <v>78.084</v>
+        <v>180.396</v>
       </c>
       <c r="H8" t="s">
         <v>16</v>
       </c>
       <c r="I8">
-        <v>-0.969</v>
+        <v>1.408</v>
       </c>
       <c r="J8">
-        <v>-2.583</v>
+        <v>-3.336</v>
       </c>
       <c r="K8">
-        <v>3.807</v>
+        <v>6.556</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -719,34 +716,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>-11.45</v>
+        <v>-11.972</v>
       </c>
       <c r="C9">
-        <v>50.731</v>
+        <v>50.62</v>
       </c>
       <c r="D9">
-        <v>111.031</v>
+        <v>111.25</v>
       </c>
       <c r="E9">
-        <v>16.484</v>
+        <v>194.732</v>
       </c>
       <c r="F9">
-        <v>-72.349</v>
+        <v>72.191</v>
       </c>
       <c r="G9">
-        <v>-4.746</v>
+        <v>176.01</v>
       </c>
       <c r="H9" t="s">
         <v>17</v>
       </c>
       <c r="I9">
-        <v>1.763</v>
+        <v>1.76</v>
       </c>
       <c r="J9">
-        <v>-2.064</v>
+        <v>-2.094</v>
       </c>
       <c r="K9">
-        <v>3.685</v>
+        <v>3.74</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -754,34 +751,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>-7.87</v>
+        <v>18.249</v>
       </c>
       <c r="C10">
-        <v>50.545</v>
+        <v>51.686</v>
       </c>
       <c r="D10">
-        <v>112.623</v>
+        <v>107.5</v>
       </c>
       <c r="E10">
-        <v>150.625</v>
+        <v>189.928</v>
       </c>
       <c r="F10">
-        <v>75.67700000000001</v>
+        <v>69.36</v>
       </c>
       <c r="G10">
-        <v>189.429</v>
+        <v>175.607</v>
       </c>
       <c r="H10" t="s">
         <v>18</v>
       </c>
       <c r="I10">
-        <v>2.009</v>
+        <v>2.254</v>
       </c>
       <c r="J10">
-        <v>-1.707</v>
+        <v>-0.212</v>
       </c>
       <c r="K10">
-        <v>3.476</v>
+        <v>2.563</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -789,34 +786,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>7.379</v>
+        <v>18.249</v>
       </c>
       <c r="C11">
-        <v>52.716</v>
+        <v>51.686</v>
       </c>
       <c r="D11">
-        <v>106.594</v>
+        <v>107.5</v>
       </c>
       <c r="E11">
-        <v>150.099</v>
+        <v>189.928</v>
       </c>
       <c r="F11">
-        <v>73.17</v>
+        <v>69.36</v>
       </c>
       <c r="G11">
-        <v>191.899</v>
+        <v>175.607</v>
       </c>
       <c r="H11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I11">
-        <v>2.379</v>
+        <v>2.254</v>
       </c>
       <c r="J11">
-        <v>-0.823</v>
+        <v>-0.212</v>
       </c>
       <c r="K11">
-        <v>3.168</v>
+        <v>2.563</v>
       </c>
     </row>
   </sheetData>
